--- a/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoFuncionamientoPorArea.xlsx
+++ b/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoFuncionamientoPorArea.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ORGANISMOS DIRECCION EJECUTIVA</t>
   </si>
@@ -26,9 +26,6 @@
     <t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</t>
   </si>
   <si>
-    <t>(En Nuevos Soles)</t>
-  </si>
-  <si>
     <t>C.C.</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>DETALLE DE GASTOS DE FUNCIONAMIENTO</t>
+  </si>
+  <si>
+    <t>(En Soles)</t>
+  </si>
+  <si>
+    <t>P/U</t>
   </si>
 </sst>
 </file>
@@ -475,22 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R10"/>
+  <dimension ref="B2:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="17" width="4.85546875" customWidth="1"/>
-    <col min="18" max="18" width="61.7109375" customWidth="1"/>
+    <col min="19" max="19" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -499,7 +502,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -508,23 +511,23 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -544,10 +547,11 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -565,29 +569,30 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -601,57 +606,61 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
+  <mergeCells count="14">
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B7:S7"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -660,8 +669,9 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoFuncionamientoPorArea.xlsx
+++ b/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoFuncionamientoPorArea.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ORGANISMOS DIRECCION EJECUTIVA</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>P/U</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
   </si>
 </sst>
 </file>
@@ -478,60 +481,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S10"/>
+  <dimension ref="B2:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C6" sqref="C6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="17" width="4.85546875" customWidth="1"/>
-    <col min="19" max="19" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="18" width="4.85546875" customWidth="1"/>
+    <col min="20" max="20" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -548,12 +550,12 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -570,31 +572,34 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -605,73 +610,76 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="B7:S7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
+  <mergeCells count="15">
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="C6:T6"/>
+    <mergeCell ref="C7:T7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="R9:R10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
